--- a/微商数据表.xlsx
+++ b/微商数据表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="154">
   <si>
     <t>主键</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,22 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总支出利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际支出利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未支出利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余总利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -411,10 +395,6 @@
   </si>
   <si>
     <t>not_profit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>surplus_profit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -744,6 +724,58 @@
   </si>
   <si>
     <t>代理每月销售与进货与分润总额报表(agent_month_profit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_surplus_profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月总支出利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月实际支出利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月未支出利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际总支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_total_profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_real_profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余总利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1153,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:K26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1"/>
@@ -1186,17 +1218,17 @@
       <c r="B1" s="9"/>
       <c r="C1" s="4"/>
       <c r="D1" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="4"/>
       <c r="G1" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="4"/>
       <c r="J1" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="4"/>
@@ -1205,7 +1237,7 @@
       </c>
       <c r="N1" s="9"/>
       <c r="P1" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="9"/>
     </row>
@@ -1255,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>28</v>
@@ -1267,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>0</v>
@@ -1296,31 +1328,31 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>62</v>
@@ -1337,25 +1369,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>26</v>
@@ -1375,34 +1407,34 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>54</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="25.5" customHeight="1">
@@ -1413,13 +1445,13 @@
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
@@ -1431,16 +1463,16 @@
         <v>56</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="25.5" customHeight="1">
@@ -1451,34 +1483,34 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="25.5" customHeight="1">
@@ -1489,34 +1521,34 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="25.5" customHeight="1">
@@ -1527,13 +1559,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
@@ -1551,10 +1583,10 @@
         <v>60</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="25.5" customHeight="1">
@@ -1565,34 +1597,34 @@
         <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="25.5" customHeight="1">
@@ -1602,17 +1634,29 @@
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="25.5" customHeight="1">
@@ -1622,36 +1666,48 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="25.5" customHeight="1">
       <c r="J14" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="25.5" customHeight="1">
       <c r="J15" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>21</v>
@@ -1659,7 +1715,7 @@
     </row>
     <row r="16" spans="1:17" ht="25.5" customHeight="1">
       <c r="J16" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>22</v>
@@ -1667,7 +1723,7 @@
     </row>
     <row r="17" spans="10:14" ht="25.5" customHeight="1">
       <c r="J17" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>23</v>
@@ -1675,7 +1731,7 @@
     </row>
     <row r="18" spans="10:14" ht="25.5" customHeight="1">
       <c r="J18" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>24</v>
@@ -1683,7 +1739,7 @@
     </row>
     <row r="19" spans="10:14" ht="25.5" customHeight="1">
       <c r="J19" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>47</v>
@@ -1699,7 +1755,7 @@
     </row>
     <row r="21" spans="10:14" ht="25.5" customHeight="1">
       <c r="J21" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>63</v>
@@ -1713,7 +1769,7 @@
         <v>65</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N22" s="8"/>
     </row>
@@ -1733,13 +1789,13 @@
     </row>
     <row r="24" spans="10:14" ht="25.5" customHeight="1">
       <c r="J24" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>0</v>
@@ -1753,7 +1809,7 @@
         <v>69</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>9</v>
@@ -1761,7 +1817,7 @@
     </row>
     <row r="26" spans="10:14" ht="25.5" customHeight="1">
       <c r="J26" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>25</v>
@@ -1783,50 +1839,50 @@
     </row>
     <row r="28" spans="10:14" ht="25.5" customHeight="1">
       <c r="M28" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="10:14" ht="25.5" customHeight="1">
       <c r="M29" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="10:14" ht="25.5" customHeight="1">
       <c r="M30" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="10:14" ht="25.5" customHeight="1">
       <c r="M31" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="10:14" ht="25.5" customHeight="1">
       <c r="M32" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="13:14" ht="25.5" customHeight="1">
       <c r="M33" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="13:14" ht="25.5" customHeight="1">
@@ -1834,20 +1890,20 @@
         <v>45</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="13:14" ht="25.5" customHeight="1">
       <c r="M35" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="13:14" ht="25.5" customHeight="1">
       <c r="M36" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>11</v>

--- a/微商数据表.xlsx
+++ b/微商数据表.xlsx
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1"/>
@@ -1682,7 +1682,7 @@
         <v>118</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>88</v>
@@ -1702,7 +1702,7 @@
         <v>120</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="25.5" customHeight="1">
